--- a/rancang-database.xlsx
+++ b/rancang-database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>user</t>
   </si>
@@ -46,45 +46,48 @@
     <t>role</t>
   </si>
   <si>
+    <t>rt_rw_id</t>
+  </si>
+  <si>
+    <t>no_kandidat</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>nama_lengkap</t>
   </si>
   <si>
-    <t>no_kandidat</t>
-  </si>
-  <si>
-    <t>admin</t>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>pilihan</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>jenis_kelamin</t>
   </si>
   <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>pilihan</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>visi</t>
+  </si>
+  <si>
+    <t>periode</t>
   </si>
   <si>
     <t>ttl</t>
   </si>
   <si>
-    <t>visi</t>
-  </si>
-  <si>
-    <t>periode</t>
+    <t>misi</t>
   </si>
   <si>
     <t>pekerjaan</t>
   </si>
   <si>
-    <t>misi</t>
-  </si>
-  <si>
     <t>alamat</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>status_vote</t>
   </si>
   <si>
+    <t>waktu_pemilihan</t>
+  </si>
+  <si>
     <t>saparudin</t>
   </si>
   <si>
@@ -127,6 +133,12 @@
     <t>belum menikah</t>
   </si>
   <si>
+    <t>rt_rw</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
     <t>sule</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
   </si>
   <si>
     <t>rakyat ngakak</t>
+  </si>
+  <si>
+    <t>rw</t>
   </si>
   <si>
     <t>andre</t>
@@ -153,8 +168,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -175,18 +190,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,6 +206,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,7 +253,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,92 +319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,187 +335,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +561,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,7 +570,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,6 +601,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,194 +648,153 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -789,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +812,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1129,15 +1150,16 @@
     <col min="1" max="1" width="8.9" customWidth="true"/>
     <col min="2" max="2" width="16.2" customWidth="true"/>
     <col min="3" max="3" width="10.8" customWidth="true"/>
-    <col min="4" max="4" width="10.3" customWidth="true"/>
+    <col min="4" max="4" width="7" customWidth="true"/>
     <col min="6" max="6" width="9.6" customWidth="true"/>
     <col min="7" max="7" width="12.8" customWidth="true"/>
     <col min="8" max="8" width="11.8" customWidth="true"/>
     <col min="9" max="9" width="16.8" customWidth="true"/>
-    <col min="10" max="10" width="8.8" customWidth="true"/>
-    <col min="11" max="11" width="8" customWidth="true"/>
+    <col min="10" max="10" width="14.5" customWidth="true"/>
+    <col min="11" max="11" width="7.2" customWidth="true"/>
     <col min="12" max="12" width="16.2" customWidth="true"/>
     <col min="13" max="13" width="10.2" customWidth="true"/>
+    <col min="14" max="14" width="14.6" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1188,9 +1210,9 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1215,16 +1237,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -1233,10 +1255,10 @@
         <v>223111</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
@@ -1244,7 +1266,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1262,19 +1284,16 @@
         <v>111233</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1290,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1298,28 +1317,31 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1327,59 +1349,79 @@
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="6:13">
+      <c r="N9" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="6:6">
+      <c r="N10" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="6:10">
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>19</v>
@@ -1396,7 +1438,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="6:10">
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
@@ -1404,16 +1449,19 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="6:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="2">
         <v>2</v>
       </c>
@@ -1421,13 +1469,13 @@
         <v>2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="6:6">
@@ -1436,31 +1484,31 @@
       </c>
     </row>
     <row r="18" spans="6:9">
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="6:9">
-      <c r="F19">
+      <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
-        <v>43</v>
+      <c r="I19" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/rancang-database.xlsx
+++ b/rancang-database.xlsx
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
